--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_summary_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_summary_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Modelo</t>
   </si>
@@ -58,10 +58,7 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>1/10</t>
+    <t>3/10</t>
   </si>
   <si>
     <t>0/10</t>
@@ -453,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>102.4</v>
+        <v>76.8</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -470,7 +467,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -484,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -501,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -518,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -535,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -552,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -569,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -586,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
